--- a/2024 1 8/magnet data.xlsx
+++ b/2024 1 8/magnet data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRYAN\Documents\2024 1 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRYAN\Documents\Measurement data\2024 1 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5148C9F1-A06F-4BA7-A581-B77CC0CFE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF348235-F9BF-432F-850E-DB283412ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calibration" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>THM7025 (mT)</t>
   </si>
@@ -113,6 +114,24 @@
   </si>
   <si>
     <t>(mA)</t>
+  </si>
+  <si>
+    <t>Magnet 1</t>
+  </si>
+  <si>
+    <t>Magnetic field</t>
+  </si>
+  <si>
+    <t>(+)</t>
+  </si>
+  <si>
+    <t>(-)</t>
+  </si>
+  <si>
+    <t>Magnet 2</t>
+  </si>
+  <si>
+    <t>Round magnet</t>
   </si>
 </sst>
 </file>
@@ -236,33 +255,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -277,13 +278,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -602,17 +615,17 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -973,139 +986,139 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="5" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8" t="s">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="9" t="s">
+      <c r="R17" s="14"/>
+      <c r="S17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="13" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="S18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T18" s="11"/>
+      <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>0</v>
       </c>
       <c r="B19" s="1">
@@ -1134,47 +1147,47 @@
         <f>AVERAGE(D19,G19)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="4">
         <v>21</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="1">
         <f>I19-$E$3</f>
         <v>0</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="1">
         <v>21</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="1">
         <f>K19-$E$3</f>
         <v>0</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="1">
         <f>AVERAGE(L19,J19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="14">
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
         <v>0.44</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="1">
         <f>O19-$G$3</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="Q19" s="1">
         <v>0.44</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="1">
         <f>Q19-$G$3</f>
         <v>0</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="1">
         <f>AVERAGE(R19,P19)</f>
         <v>0</v>
       </c>
-      <c r="T19" s="7"/>
+      <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>0.3</v>
       </c>
       <c r="B20" s="1">
@@ -1203,53 +1216,53 @@
         <f t="shared" ref="H20:H24" si="7">AVERAGE(D20,G20)</f>
         <v>47</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="4">
         <v>66</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="1">
         <f t="shared" ref="J20:J24" si="8">I20-$E$3</f>
         <v>45</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="1">
         <v>69.8</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="1">
         <f t="shared" ref="L20:L24" si="9">K20-$E$3</f>
         <v>48.8</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="1">
         <f t="shared" ref="M20:M24" si="10">AVERAGE(L20,J20)</f>
         <v>46.9</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="8">
         <f>(M20-H20)/H20</f>
         <v>-2.1276595744681155E-3</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="4">
         <v>51.2</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="1">
         <f t="shared" ref="P20:P24" si="11">O20-$G$3</f>
         <v>50.760000000000005</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="1">
         <v>51.7</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="1">
         <f t="shared" ref="R20:R24" si="12">Q20-$G$3</f>
         <v>51.260000000000005</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="1">
         <f t="shared" ref="S20:S24" si="13">AVERAGE(R20,P20)</f>
         <v>51.010000000000005</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="8">
         <f>(S20-H20)/H20</f>
         <v>8.5319148936170319E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>0.4</v>
       </c>
       <c r="B21" s="1">
@@ -1278,53 +1291,53 @@
         <f t="shared" si="7"/>
         <v>78.050000000000011</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="4">
         <v>82.5</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="1">
         <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="1">
         <v>86.4</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="1">
         <f t="shared" si="9"/>
         <v>65.400000000000006</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="1">
         <f t="shared" si="10"/>
         <v>63.45</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="8">
         <f t="shared" ref="N21:N24" si="16">(M21-H21)/H21</f>
         <v>-0.18705957719410643</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="4">
         <v>64.7</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="1">
         <f t="shared" si="11"/>
         <v>64.260000000000005</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="1">
         <v>70</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="1">
         <f t="shared" si="12"/>
         <v>69.56</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="1">
         <f t="shared" si="13"/>
         <v>66.91</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="8">
         <f t="shared" ref="T21:T24" si="17">(S21-H21)/H21</f>
         <v>-0.14272901985906486</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="3">
         <v>0.5</v>
       </c>
       <c r="B22" s="1">
@@ -1353,53 +1366,53 @@
         <f t="shared" si="7"/>
         <v>81.25</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="4">
         <v>98.7</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="1">
         <f t="shared" si="8"/>
         <v>77.7</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="1">
         <v>103.6</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="1">
         <f t="shared" si="9"/>
         <v>82.6</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="1">
         <f t="shared" si="10"/>
         <v>80.150000000000006</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="8">
         <f t="shared" si="16"/>
         <v>-1.3538461538461468E-2</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="4">
         <v>81.900000000000006</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="1">
         <f t="shared" si="11"/>
         <v>81.460000000000008</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="1">
         <v>88.7</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="1">
         <f t="shared" si="12"/>
         <v>88.26</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="1">
         <f t="shared" si="13"/>
         <v>84.860000000000014</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="8">
         <f t="shared" si="17"/>
         <v>4.4430769230769399E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="3">
         <v>0.6</v>
       </c>
       <c r="B23" s="1">
@@ -1428,122 +1441,122 @@
         <f t="shared" si="7"/>
         <v>101.5</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="4">
         <v>119.4</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="1">
         <f t="shared" si="8"/>
         <v>98.4</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="1">
         <v>123.8</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="1">
         <f t="shared" si="9"/>
         <v>102.8</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="1">
         <f t="shared" si="10"/>
         <v>100.6</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="8">
         <f t="shared" si="16"/>
         <v>-8.8669950738916817E-3</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="4">
         <v>99.2</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="1">
         <f t="shared" si="11"/>
         <v>98.76</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="Q23" s="1">
         <v>105.5</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="1">
         <f t="shared" si="12"/>
         <v>105.06</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="1">
         <f t="shared" si="13"/>
         <v>101.91</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="8">
         <f t="shared" si="17"/>
         <v>4.0394088669950404E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="5">
         <v>0.7</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="6">
         <v>1185</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="6">
         <f t="shared" si="5"/>
         <v>118.5</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <f t="shared" si="6"/>
         <v>120.8</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>1188</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="6">
         <f t="shared" si="14"/>
         <v>118.80000000000001</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <f t="shared" si="15"/>
         <v>121.10000000000001</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="6">
         <f t="shared" si="7"/>
         <v>120.95</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="7">
         <v>140.30000000000001</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="6">
         <f t="shared" si="8"/>
         <v>119.30000000000001</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="6">
         <v>142.4</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="6">
         <f t="shared" si="9"/>
         <v>121.4</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="6">
         <f t="shared" si="10"/>
         <v>120.35000000000001</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="9">
         <f t="shared" si="16"/>
         <v>-4.9607275733773819E-3</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="7">
         <v>118.1</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="6">
         <f t="shared" si="11"/>
         <v>117.66</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="6">
         <v>120.4</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="6">
         <f t="shared" si="12"/>
         <v>119.96000000000001</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="6">
         <f t="shared" si="13"/>
         <v>118.81</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="9">
         <f t="shared" si="17"/>
         <v>-1.76932616783795E-2</v>
       </c>
@@ -1561,6 +1574,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="O16:T16"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
@@ -1568,11 +1585,68 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2409E945-608B-44CC-820D-9B5B63031DE8}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>80.3</v>
+      </c>
+      <c r="C5">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>47.2</v>
+      </c>
+      <c r="C7">
+        <v>43.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2024 1 8/magnet data.xlsx
+++ b/2024 1 8/magnet data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRYAN\Documents\Measurement data\2024 1 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF348235-F9BF-432F-850E-DB283412ADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2065EBD5-DBD6-493C-81DB-005CCFA34331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -284,6 +284,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,9 +297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -315,6 +315,1171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration!$H$19:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.050000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFD9-44B8-9D83-819AE9090268}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration!$M$19:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.35000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFD9-44B8-9D83-819AE9090268}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calibration!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calibration!$S$19:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.860000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFD9-44B8-9D83-819AE9090268}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1840158512"/>
+        <c:axId val="1840159760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1840158512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1840159760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1840159760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1840158512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106455</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>705970</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C371AF0-5B30-4227-BF7C-1735E0084B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S19" activeCellId="3" sqref="A19:A24 H19:H24 M19:M24 S19:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,17 +1780,17 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -989,69 +2154,69 @@
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="10" t="s">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="13"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14" t="s">
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="10"/>
       <c r="S17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1587,6 +2752,7 @@
     <mergeCell ref="I16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1594,7 +2760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2409E945-608B-44CC-820D-9B5B63031DE8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/2024 1 8/magnet data.xlsx
+++ b/2024 1 8/magnet data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRYAN\Documents\Measurement data\2024 1 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2065EBD5-DBD6-493C-81DB-005CCFA34331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D23E3-CC3A-49FD-BDD2-E3F439541DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,30 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>THM7025 (mT)</t>
   </si>
@@ -116,22 +94,13 @@
     <t>(mA)</t>
   </si>
   <si>
-    <t>Magnet 1</t>
+    <t>percentage difference</t>
   </si>
   <si>
-    <t>Magnetic field</t>
+    <t>Gaussmeter reading (mT)</t>
   </si>
   <si>
-    <t>(+)</t>
-  </si>
-  <si>
-    <t>(-)</t>
-  </si>
-  <si>
-    <t>Magnet 2</t>
-  </si>
-  <si>
-    <t>Round magnet</t>
+    <t>Teslameter reading (mT)</t>
   </si>
 </sst>
 </file>
@@ -255,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +253,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,16 +1415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>106455</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180414</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570281</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>705970</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457492</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>170524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1745,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S19" activeCellId="3" sqref="A19:A24 H19:H24 M19:M24 S19:S24"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,17 +1750,17 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -2154,69 +2124,69 @@
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="11" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10" t="s">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="10"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2727,16 +2697,6 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N26" s="1" cm="1">
-        <f t="array" ref="N26">AVERAGE(ABS(N20:N24))</f>
-        <v>4.3310684190861017E-2</v>
-      </c>
-      <c r="T26" s="1" cm="1">
-        <f t="array" ref="T26">AVERAGE(ABS(T20:T24))</f>
-        <v>5.8842321714275822E-2</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
@@ -2758,60 +2718,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2409E945-608B-44CC-820D-9B5B63031DE8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="A12:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>82</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>87.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>80.3</v>
+        <f>AVERAGE(Calibration!M19,Calibration!S19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(Calibration!M20,Calibration!S20)</f>
+        <v>48.954999999999998</v>
+      </c>
+      <c r="D4" s="10">
+        <f>(B4-C4)/C4</f>
+        <v>-3.9934633847410854E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>78.050000000000011</v>
       </c>
       <c r="C5">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>47.2</v>
+        <f>AVERAGE(Calibration!M21,Calibration!S21)</f>
+        <v>65.180000000000007</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" ref="D5:D8" si="0">(B5-C5)/C5</f>
+        <v>0.19745320650506296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(Calibration!M22,Calibration!S22)</f>
+        <v>82.50500000000001</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.5211199321253373E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101.5</v>
       </c>
       <c r="C7">
-        <v>43.6</v>
-      </c>
-    </row>
+        <f>AVERAGE(Calibration!M23,Calibration!S23)</f>
+        <v>101.255</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4196335983408678E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>120.95</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(Calibration!M24,Calibration!S24)</f>
+        <v>119.58000000000001</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1456765345375399E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
